--- a/test/main/test-data_20211210_1.xlsx
+++ b/test/main/test-data_20211210_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -61,16 +61,7 @@
     <t xml:space="preserve">Siddharth</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rep_boost_test_b@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9887565778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">Aone</t>
   </si>
 </sst>
 </file>
@@ -184,7 +175,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -267,8 +258,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,31 +329,8 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>67561</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>44527</v>
-      </c>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -425,7 +393,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="rep_boost_test_a@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="rep_boost_test_b@mailinator.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
